--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itga2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N2">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O2">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P2">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q2">
-        <v>281.2858997781052</v>
+        <v>403.2894658391393</v>
       </c>
       <c r="R2">
-        <v>2531.573098002947</v>
+        <v>3629.605192552254</v>
       </c>
       <c r="S2">
-        <v>0.02527628002939346</v>
+        <v>0.03664256963228119</v>
       </c>
       <c r="T2">
-        <v>0.02527628002939346</v>
+        <v>0.03664256963228119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.562536</v>
       </c>
       <c r="O3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q3">
-        <v>52.82638096219288</v>
+        <v>56.78319593178131</v>
       </c>
       <c r="R3">
-        <v>475.4374286597359</v>
+        <v>511.0487633860319</v>
       </c>
       <c r="S3">
-        <v>0.004746965273386024</v>
+        <v>0.005159277360603533</v>
       </c>
       <c r="T3">
-        <v>0.004746965273386024</v>
+        <v>0.005159277360603533</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N4">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O4">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P4">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q4">
-        <v>15.64548025621011</v>
+        <v>12.12770094400533</v>
       </c>
       <c r="R4">
-        <v>140.809322305891</v>
+        <v>109.149308496048</v>
       </c>
       <c r="S4">
-        <v>0.001405898910902662</v>
+        <v>0.001101913548362933</v>
       </c>
       <c r="T4">
-        <v>0.001405898910902661</v>
+        <v>0.001101913548362933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N5">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q5">
-        <v>1.142868523276555</v>
+        <v>2.378080075442</v>
       </c>
       <c r="R5">
-        <v>10.285816709489</v>
+        <v>21.402720678978</v>
       </c>
       <c r="S5">
-        <v>0.0001026978773337224</v>
+        <v>0.0002160705203995614</v>
       </c>
       <c r="T5">
-        <v>0.0001026978773337224</v>
+        <v>0.0002160705203995614</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I6">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J6">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N6">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O6">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P6">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q6">
-        <v>6191.91367885133</v>
+        <v>8258.949974476791</v>
       </c>
       <c r="R6">
-        <v>55727.22310966198</v>
+        <v>74330.54977029111</v>
       </c>
       <c r="S6">
-        <v>0.5564038019251628</v>
+        <v>0.750401820934254</v>
       </c>
       <c r="T6">
-        <v>0.556403801925163</v>
+        <v>0.750401820934254</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>2.562536</v>
       </c>
       <c r="O7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q7">
         <v>1162.860957986328</v>
@@ -886,10 +886,10 @@
         <v>10465.74862187695</v>
       </c>
       <c r="S7">
-        <v>0.1044943924757619</v>
+        <v>0.1056566492184828</v>
       </c>
       <c r="T7">
-        <v>0.1044943924757619</v>
+        <v>0.1056566492184828</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N8">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O8">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P8">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q8">
-        <v>344.4021306686429</v>
+        <v>248.362736659992</v>
       </c>
       <c r="R8">
-        <v>3099.619176017787</v>
+        <v>2235.264629939928</v>
       </c>
       <c r="S8">
-        <v>0.03094788862281242</v>
+        <v>0.02256604658192997</v>
       </c>
       <c r="T8">
-        <v>0.03094788862281243</v>
+        <v>0.02256604658192997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N9">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q9">
-        <v>25.157831402097</v>
+        <v>48.70061343533699</v>
       </c>
       <c r="R9">
-        <v>226.420482618873</v>
+        <v>438.305520918033</v>
       </c>
       <c r="S9">
-        <v>0.002260676386385895</v>
+        <v>0.004424900152613798</v>
       </c>
       <c r="T9">
-        <v>0.002260676386385896</v>
+        <v>0.004424900152613798</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H10">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I10">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J10">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N10">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O10">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P10">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q10">
-        <v>1141.646583868719</v>
+        <v>271.972678102168</v>
       </c>
       <c r="R10">
-        <v>10274.81925481847</v>
+        <v>2447.754102919512</v>
       </c>
       <c r="S10">
-        <v>0.1025880741666395</v>
+        <v>0.02471122764067375</v>
       </c>
       <c r="T10">
-        <v>0.1025880741666395</v>
+        <v>0.02471122764067374</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H11">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I11">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J11">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>2.562536</v>
       </c>
       <c r="O11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q11">
-        <v>214.4048365425013</v>
+        <v>38.29377947334399</v>
       </c>
       <c r="R11">
-        <v>1929.643528882512</v>
+        <v>344.644015260096</v>
       </c>
       <c r="S11">
-        <v>0.01926636455072828</v>
+        <v>0.003479343250177819</v>
       </c>
       <c r="T11">
-        <v>0.01926636455072828</v>
+        <v>0.003479343250177819</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N12">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O12">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P12">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q12">
-        <v>63.49983807072466</v>
+        <v>8.178748974015999</v>
       </c>
       <c r="R12">
-        <v>571.498542636522</v>
+        <v>73.608740766144</v>
       </c>
       <c r="S12">
-        <v>0.005706079437906151</v>
+        <v>0.0007431148199265578</v>
       </c>
       <c r="T12">
-        <v>0.00570607943790615</v>
+        <v>0.0007431148199265577</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N13">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q13">
-        <v>4.638525949715333</v>
+        <v>1.603743369576</v>
       </c>
       <c r="R13">
-        <v>41.746733547438</v>
+        <v>14.433690326184</v>
       </c>
       <c r="S13">
-        <v>0.0004168167722630337</v>
+        <v>0.0001457148848897473</v>
       </c>
       <c r="T13">
-        <v>0.0004168167722630337</v>
+        <v>0.0001457148848897473</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H14">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I14">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J14">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N14">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O14">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P14">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q14">
-        <v>123.1548873518262</v>
+        <v>320.5025447321191</v>
       </c>
       <c r="R14">
-        <v>1108.393986166436</v>
+        <v>2884.522902589071</v>
       </c>
       <c r="S14">
-        <v>0.01106666712461876</v>
+        <v>0.029120613870322</v>
       </c>
       <c r="T14">
-        <v>0.01106666712461877</v>
+        <v>0.029120613870322</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H15">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I15">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J15">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>2.562536</v>
       </c>
       <c r="O15">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P15">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q15">
-        <v>23.12887706684088</v>
+        <v>45.126789404952</v>
       </c>
       <c r="R15">
-        <v>208.1598936015679</v>
+        <v>406.141104644568</v>
       </c>
       <c r="S15">
-        <v>0.002078355061409273</v>
+        <v>0.004100185259269334</v>
       </c>
       <c r="T15">
-        <v>0.002078355061409274</v>
+        <v>0.004100185259269334</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H16">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I16">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J16">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N16">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O16">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P16">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q16">
-        <v>6.850031800523109</v>
+        <v>9.638136731928002</v>
       </c>
       <c r="R16">
-        <v>61.65028620470799</v>
+        <v>86.74323058735202</v>
       </c>
       <c r="S16">
-        <v>0.0006155421303977838</v>
+        <v>0.0008757136653452457</v>
       </c>
       <c r="T16">
-        <v>0.0006155421303977839</v>
+        <v>0.0008757136653452457</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N17">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O17">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P17">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q17">
-        <v>0.5003800203035554</v>
+        <v>1.889909805033</v>
       </c>
       <c r="R17">
-        <v>4.503420182731999</v>
+        <v>17.009188245297</v>
       </c>
       <c r="S17">
-        <v>4.496402245645279E-05</v>
+        <v>0.0001717157463698172</v>
       </c>
       <c r="T17">
-        <v>4.496402245645279E-05</v>
+        <v>0.0001717157463698172</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H18">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I18">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J18">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N18">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O18">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P18">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q18">
-        <v>1182.692481665892</v>
+        <v>98.04614109708122</v>
       </c>
       <c r="R18">
-        <v>10644.23233499303</v>
+        <v>882.4152698737309</v>
       </c>
       <c r="S18">
-        <v>0.1062764481931998</v>
+        <v>0.008908396714134051</v>
       </c>
       <c r="T18">
-        <v>0.1062764481931998</v>
+        <v>0.008908396714134051</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H19">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I19">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J19">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>2.562536</v>
       </c>
       <c r="O19">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P19">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q19">
-        <v>222.1133858714196</v>
+        <v>13.80490618242755</v>
       </c>
       <c r="R19">
-        <v>1999.020472842776</v>
+        <v>124.244155641848</v>
       </c>
       <c r="S19">
-        <v>0.01995905284975726</v>
+        <v>0.001254303121962721</v>
       </c>
       <c r="T19">
-        <v>0.01995905284975726</v>
+        <v>0.001254303121962722</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H20">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I20">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J20">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N20">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O20">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P20">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q20">
-        <v>65.78286322090345</v>
+        <v>2.948438723696889</v>
       </c>
       <c r="R20">
-        <v>592.045768988131</v>
+        <v>26.535948513272</v>
       </c>
       <c r="S20">
-        <v>0.005911231502249188</v>
+        <v>0.0002678928670124773</v>
       </c>
       <c r="T20">
-        <v>0.005911231502249189</v>
+        <v>0.0002678928670124773</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H21">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I21">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J21">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N21">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O21">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P21">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q21">
-        <v>4.805296003383223</v>
+        <v>0.5781494295463333</v>
       </c>
       <c r="R21">
-        <v>43.24766403044899</v>
+        <v>5.203344865917</v>
       </c>
       <c r="S21">
-        <v>0.0004318026872354935</v>
+        <v>5.253021098861336E-05</v>
       </c>
       <c r="T21">
-        <v>0.0004318026872354936</v>
+        <v>5.253021098861336E-05</v>
       </c>
     </row>
   </sheetData>
